--- a/data/processed/crime_table.xlsx
+++ b/data/processed/crime_table.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Viva Wan/Documents/GitHub/508-midterm/data/processed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{5D008E81-1682-1745-8D10-60F38A14A8B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{688C0B79-F296-A444-91C7-18F2830A606B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15320" yWindow="740" windowWidth="14220" windowHeight="16840"/>
+    <workbookView xWindow="15180" yWindow="740" windowWidth="14220" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="crime_table" sheetId="1" r:id="rId1"/>
@@ -292,7 +292,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1153,11 +1153,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1336,17 +1336,17 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" t="s">
+    <row r="12" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="1">
         <v>169</v>
       </c>
     </row>
